--- a/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
+++ b/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87EF0F28-128E-4FE0-864F-56D03FCD3AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E99F9-C991-4B14-B6FC-9E201CA608AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -181,14 +181,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ページロード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロード時に、以下の処理を実行する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー新規登録</t>
     <rPh sb="4" eb="8">
       <t>シンキトウロク</t>
@@ -198,13 +190,6 @@
   <si>
     <t>ユーザーIDが入力できる</t>
     <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードが入力できる</t>
-    <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -222,98 +207,13 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3で入力したパスワードをもう一度入力させ、誤入力を防ぐ</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ゴニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フセ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「4.パスワードチェック」をタップしたとき</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「5.最寄り駅登録ボタン」をタップしたとき</t>
-    <rPh sb="3" eb="5">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>エキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最寄り駅登録ボタンをタップすると、</t>
-    <rPh sb="0" eb="2">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エキトウロク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「6.登録ボタン」をタップしたとき</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.最寄り駅登録ボタンを押す　2.現在地を取得　3.現在地から一番近い駅を取得　4.ボタン横の表示画面に取得した駅が表示される</t>
-    <rPh sb="2" eb="4">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>エキトウロク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>イチバンチカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="47" eb="51">
-      <t>ヒョウジガメン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -334,32 +234,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>最寄り駅登録ボタン</t>
-    <rPh sb="0" eb="2">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>登録ボタン</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>button</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -395,41 +273,389 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタンが押されなかった場合、駅名を登録してくださいと表示される</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
+    <t>2.3.4のいずれかが空欄、もしくはパスワードが両方同じではなかった場合にエラーを表示する</t>
     <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>エキメイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="41" eb="43">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2.3.4のいずれかが空欄、もしくはパスワードが両方同じではなかった場合にエラーを表示する</t>
-    <rPh sb="11" eb="13">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤萌花</t>
+    <rPh sb="0" eb="4">
+      <t>サトウモエカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「5.pw確認ボタン」をタップしたとき</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw確認ボタンをクリックした時にpw本体が表示される</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「5.1pw確認ボタン（閉じているとき）」をクリックしない状態の時「＊」表示になる</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw確認ボタン</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pw_check_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>checkbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最寄り駅検索ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注意表示</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>check_message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録エラー表示</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴが表示される</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜エラー表示＞</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.パスワードとパスワードチェックの値が違うとき→「パスワードが一致しません」</t>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.ID、パスワード(パスワードチェック)が想定されている型と違うとき→「●●で入力してください」</t>
+    <rPh sb="22" eb="24">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.ID、パスワード、パスワードチェックが入力されておらず、駅検索ボタンが押されたとき→「ID、パスワード、パスワードチェックが入力されていません」</t>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>エキケンサク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4.ID、パスワード、パスワードチェックが入力済みで、駅検索ボタンを押さなかったとき→「駅検索ボタンを押してください」</t>
+    <rPh sb="21" eb="24">
+      <t>ニュウリョクズ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>エキケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した際に、上記に該当する場合はエラー表示を出す</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3で入力したパスワードをもう一度入力させ、誤入力を防ぐ→プレースホルダー「パスワードをもう一度記入してください」</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ゴニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最寄り駅検索ボタンをタップすると、</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.最寄り駅検索ボタンを押す　2.現在地を取得　3.現在地から一番近い駅を取得　4.ボタン横の表示画面に取得した駅が表示される</t>
+    <rPh sb="2" eb="4">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>イチバンチカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードが入力できる(決められた形で入力してもらうため、プレースホルダーで表示する→「●●で記入してください」)</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>register_result_false</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「5.最寄り駅検索ボタン」をタップしたとき（非同期通信）</t>
+    <rPh sb="3" eb="5">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>駅名表示欄</t>
+    <rPh sb="0" eb="4">
+      <t>エキメイヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>station_display</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -805,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -855,24 +1081,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,9 +1111,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,7 +1129,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,8 +1202,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1860549" y="1651000"/>
-          <a:ext cx="2851152" cy="4584700"/>
+          <a:off x="1877645" y="1641231"/>
+          <a:ext cx="2878018" cy="4555392"/>
           <a:chOff x="8063043" y="708352"/>
           <a:chExt cx="2629775" cy="3920286"/>
         </a:xfrm>
@@ -1443,7 +1672,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>最寄り駅登録</a:t>
+                <a:t>最寄り駅検索</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1637,7 +1866,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10263062" y="2438400"/>
+            <a:off x="10315775" y="2666451"/>
             <a:ext cx="293997" cy="296333"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1846,10 +2075,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="275653" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -1865,7 +2094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="3924300"/>
+          <a:off x="4165600" y="3486150"/>
           <a:ext cx="275653" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1899,7 +2128,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1966,7 +2195,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1980,10 +2209,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218116</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="275653" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -1999,7 +2228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1974850" y="5480050"/>
+          <a:off x="3274976" y="4605079"/>
           <a:ext cx="275653" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2033,7 +2262,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2071,8 +2300,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5664200" y="1257300"/>
-          <a:ext cx="2495550" cy="2870200"/>
+          <a:off x="5717931" y="1249973"/>
+          <a:ext cx="2519973" cy="2851883"/>
           <a:chOff x="8048880" y="5298744"/>
           <a:chExt cx="2634008" cy="3880580"/>
         </a:xfrm>
@@ -2356,8 +2585,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8520969" y="8840808"/>
-              <a:ext cx="1835222" cy="334286"/>
+              <a:off x="8520969" y="8901520"/>
+              <a:ext cx="1835222" cy="334285"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -2541,7 +2770,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>最寄り駅登録</a:t>
+                <a:t>最寄り駅検索</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2718,8 +2947,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8048880" y="8098220"/>
-            <a:ext cx="2523654" cy="602592"/>
+            <a:off x="8048880" y="8441634"/>
+            <a:ext cx="2523654" cy="334178"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2766,23 +2995,7 @@
                   <a:srgbClr val="FF5050"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>かパスワードが間違っている可能性が</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF5050"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF5050"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>あります！</a:t>
+              <a:t>かパスワードが間違っています！</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2816,8 +3029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5670550" y="4406901"/>
-          <a:ext cx="2533650" cy="2571749"/>
+          <a:off x="5724281" y="4378814"/>
+          <a:ext cx="2558073" cy="2555874"/>
           <a:chOff x="11476276" y="5373484"/>
           <a:chExt cx="2629773" cy="3920285"/>
         </a:xfrm>
@@ -3082,7 +3295,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11887782" y="8798328"/>
+            <a:off x="11887782" y="8914484"/>
             <a:ext cx="1835222" cy="334286"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3267,7 +3480,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>最寄り駅登録</a:t>
+              <a:t>最寄り駅検索</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3443,7 +3656,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11545613" y="8363893"/>
+            <a:off x="11545613" y="8499409"/>
             <a:ext cx="2539417" cy="333121"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3836,6 +4049,734 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A94692-0209-4226-ADA2-A42C74D60040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120900" y="4171950"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="グラフィックス 23" descr="目 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0291D971-D7E6-4796-AF10-EAA07A0D8ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4311650" y="3638550"/>
+          <a:ext cx="311150" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96137</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86242</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB7434F-6CA1-4C97-9DE2-05E070B8C757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2388782" y="5269614"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366639" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AB5D18-75EF-43C5-AC85-B1E922EC10A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="3568700"/>
+          <a:ext cx="366639" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="366639" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10B7479-DE92-4843-9D10-2392234C451E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6070600" y="6432550"/>
+          <a:ext cx="366639" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="414601" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89938B7-082C-4987-85BF-E8FDCB110FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="3810000"/>
+          <a:ext cx="414601" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC6C5D2-D781-46C1-ACD2-E0A38171A5B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083300" y="3302000"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>67130</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2584EF8D-CF5C-49C8-B322-9053A3EA811A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172199" y="3359150"/>
+          <a:ext cx="1514931" cy="205323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自宅で登録してください</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>30421</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3692</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67065EEB-0C8D-4BF5-A06C-E4D859ED5BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908357" y="5954971"/>
+          <a:ext cx="275653" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>162380</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54385796-96A3-415D-A1EB-054D25D59EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267449" y="6318250"/>
+          <a:ext cx="1514931" cy="205323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>自宅で登録してください</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185774</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="308098" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA300514-D1F5-44A0-9CCA-5AF76500B20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968943" y="5528044"/>
+          <a:ext cx="308098" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>９</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4162,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4172,148 +5113,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="40">
+        <v>45085</v>
+      </c>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="41">
+        <v>45086</v>
+      </c>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5496,7 +6443,7 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="E34" s="8"/>
@@ -5536,7 +6483,7 @@
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="E35" s="8"/>
@@ -5576,7 +6523,7 @@
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
     </row>
-    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="E36" s="8"/>
@@ -5616,7 +6563,7 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -5658,7 +6605,7 @@
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
     </row>
-    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -5700,7 +6647,7 @@
       <c r="AM38" s="11"/>
       <c r="AN38" s="7"/>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5742,7 +6689,7 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5784,7 +6731,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -5828,13 +6775,13 @@
       <c r="AM41" s="5"/>
       <c r="AN41" s="7"/>
     </row>
-    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>21</v>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -5878,7 +6825,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -5963,8 +6910,8 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
+      <c r="E45" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -6007,6 +6954,9 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -6048,9 +6998,6 @@
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -6091,7 +7038,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -6132,6 +7079,9 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
+      <c r="E49" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -6171,9 +7121,6 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="E50" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -6214,7 +7161,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -6255,6 +7202,9 @@
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
+      <c r="E52" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -6294,9 +7244,6 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="E53" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -6333,11 +7280,11 @@
       <c r="AM53" s="7"/>
       <c r="AN53" s="7"/>
     </row>
-    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="8" t="s">
-        <v>29</v>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -6378,7 +7325,9 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -6419,7 +7368,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -6499,6 +7448,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
+      <c r="E58" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -6538,8 +7490,8 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8" t="s">
-        <v>31</v>
+      <c r="E59" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -6580,8 +7532,8 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="E60" s="8" t="s">
-        <v>32</v>
+      <c r="E60" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -6622,8 +7574,8 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8" t="s">
-        <v>34</v>
+      <c r="E61" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -6665,7 +7617,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="E62" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -6706,6 +7658,9 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
+      <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -6745,9 +7700,6 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -6787,7 +7739,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -6824,10 +7778,9 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -6864,10 +7817,12 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -6904,10 +7859,12 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -6944,10 +7901,12 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -6984,10 +7943,9 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -7024,10 +7982,12 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -7064,12 +8024,14 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -7106,7 +8068,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -7148,7 +8110,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -7190,7 +8152,7 @@
       <c r="AM74" s="10"/>
       <c r="AN74" s="11"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7232,7 +8194,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -7276,7 +8238,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -7318,7 +8280,7 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="12" t="s">
         <v>11</v>
@@ -7380,26 +8342,26 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
       <c r="C79" s="13">
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -7436,41 +8398,43 @@
       <c r="C80" s="13">
         <v>2</v>
       </c>
-      <c r="D80" s="42" t="s">
-        <v>45</v>
+      <c r="D80" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
       <c r="S80" s="14"/>
       <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
+      <c r="U80" s="14">
+        <v>12</v>
+      </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="42" t="s">
-        <v>45</v>
+      <c r="AA80" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -7492,41 +8456,43 @@
       <c r="C81" s="13">
         <v>3</v>
       </c>
-      <c r="D81" s="42" t="s">
-        <v>46</v>
+      <c r="D81" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
       <c r="S81" s="14"/>
       <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
+      <c r="U81" s="14">
+        <v>20</v>
+      </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="42" t="s">
-        <v>46</v>
+      <c r="AA81" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -7542,31 +8508,31 @@
       <c r="AM81" s="18"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
       <c r="C82" s="13">
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -7600,20 +8566,20 @@
       <c r="C83" s="13">
         <v>5</v>
       </c>
-      <c r="D83" s="42" t="s">
-        <v>47</v>
+      <c r="D83" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -7625,15 +8591,11 @@
       <c r="T83" s="17"/>
       <c r="U83" s="14"/>
       <c r="V83" s="17"/>
-      <c r="W83" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="W83" s="14"/>
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="AA83" s="15"/>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
       <c r="AD83" s="14"/>
@@ -7648,26 +8610,26 @@
       <c r="AM83" s="18"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13">
         <v>6</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>51</v>
+      <c r="D84" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -7679,11 +8641,15 @@
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
+      <c r="W84" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
+      <c r="AA84" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14"/>
@@ -7698,19 +8664,27 @@
       <c r="AM84" s="18"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>7</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14"/>
@@ -7725,7 +8699,7 @@
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
+      <c r="AA85" s="15"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14"/>
@@ -7740,19 +8714,27 @@
       <c r="AM85" s="18"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>8</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -7782,19 +8764,27 @@
       <c r="AM86" s="18"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
+      <c r="C87" s="13">
+        <v>9</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
+      <c r="L87" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="14"/>
@@ -7824,19 +8814,27 @@
       <c r="AM87" s="18"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="13">
+        <v>10</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
+      <c r="L88" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="14"/>
@@ -7866,7 +8864,7 @@
       <c r="AM88" s="18"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -7908,7 +8906,7 @@
       <c r="AM89" s="18"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -7950,7 +8948,7 @@
       <c r="AM90" s="18"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -7992,7 +8990,7 @@
       <c r="AM91" s="18"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -8034,7 +9032,7 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -8076,7 +9074,7 @@
       <c r="AM93" s="18"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -8118,7 +9116,7 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -8160,7 +9158,7 @@
       <c r="AM95" s="18"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -8202,7 +9200,7 @@
       <c r="AM96" s="18"/>
       <c r="AN96" s="7"/>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -8244,7 +9242,7 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="7"/>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -8286,7 +9284,7 @@
       <c r="AM98" s="18"/>
       <c r="AN98" s="7"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -8328,7 +9326,7 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="7"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -8370,7 +9368,7 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="7"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -8412,7 +9410,7 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="7"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -8454,7 +9452,7 @@
       <c r="AM102" s="18"/>
       <c r="AN102" s="7"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -8496,7 +9494,7 @@
       <c r="AM103" s="18"/>
       <c r="AN103" s="7"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -8538,7 +9536,7 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="7"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -8580,7 +9578,7 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="7"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -8622,7 +9620,7 @@
       <c r="AM106" s="18"/>
       <c r="AN106" s="7"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -8664,7 +9662,7 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="7"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -8706,7 +9704,7 @@
       <c r="AM108" s="18"/>
       <c r="AN108" s="7"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>

--- a/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
+++ b/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E99F9-C991-4B14-B6FC-9E201CA608AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC77B43-E90D-4DC7-9FA0-28311D4A5A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -440,22 +440,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2.ID、パスワード(パスワードチェック)が想定されている型と違うとき→「●●で入力してください」</t>
-    <rPh sb="22" eb="24">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>3.ID、パスワード、パスワードチェックが入力されておらず、駅検索ボタンが押されたとき→「ID、パスワード、パスワードチェックが入力されていません」</t>
     <rPh sb="21" eb="23">
       <t>ニュウリョク</t>
@@ -599,28 +583,6 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードが入力できる(決められた形で入力してもらうため、プレースホルダーで表示する→「●●で記入してください」)</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -656,6 +618,89 @@
   </si>
   <si>
     <t>station_display</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8文字以上の半角英数字で入力（javascriptとjavaでみる）</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードが入力できる(決められた形で入力してもらうため、プレースホルダーで表示する→「8文字以上の半角英数字で入力で記入してください」)</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(決められた形で入力してもらうため、プレースホルダーで表示する→「半角英数字で入力で記入してください」)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.IDが既に使用されていた場合→「IDが既に使用されています」</t>
+    <rPh sb="5" eb="6">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.IDが想定されている型と違うとき→「12文字以下の半角英数字で入力してください」、パスワードが想定されている型と違うとき→「8文字以上21文字未満の半角英数字で入力してください」</t>
+    <rPh sb="5" eb="7">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="27" eb="32">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="81">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1081,6 +1126,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,13 +1186,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,8 +1198,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5103,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5113,154 +5158,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="39" t="s">
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="40">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39">
         <v>45085</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="38" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="38"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="41">
         <v>45086</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
       <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6738,7 +6783,9 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -6780,8 +6827,8 @@
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="1" t="s">
-        <v>23</v>
+      <c r="E42" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -6824,8 +6871,8 @@
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>58</v>
+      <c r="E43" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -6868,7 +6915,9 @@
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -6910,10 +6959,9 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -6955,9 +7003,8 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="8"/>
+        <v>25</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -6998,6 +7045,9 @@
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -7037,10 +7087,9 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="E48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -7080,7 +7129,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="E49" s="8" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -7121,7 +7170,9 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="F50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -7160,8 +7211,8 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="E51" s="8" t="s">
-        <v>26</v>
+      <c r="E51" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -7202,8 +7253,8 @@
     <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="E52" s="8" t="s">
-        <v>65</v>
+      <c r="E52" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7244,6 +7295,9 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
+      <c r="E53" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -7283,9 +7337,6 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="E54" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -7326,7 +7377,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -7368,7 +7419,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -7409,6 +7460,9 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
+      <c r="E57" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -7449,7 +7503,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="E58" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -7491,7 +7545,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7533,7 +7587,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="E60" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -7575,7 +7629,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -7616,9 +7670,6 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -7658,9 +7709,6 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="E63" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7739,9 +7787,6 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="E65" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -7781,6 +7826,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
+      <c r="E66" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -7821,7 +7869,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -7863,7 +7911,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="E68" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -7905,7 +7953,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -8398,7 +8446,7 @@
       <c r="C80" s="13">
         <v>2</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="15"/>
@@ -8433,7 +8481,7 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="43" t="s">
+      <c r="AA80" s="19" t="s">
         <v>34</v>
       </c>
       <c r="AB80" s="15"/>
@@ -8456,7 +8504,7 @@
       <c r="C81" s="13">
         <v>3</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="15"/>
@@ -8491,7 +8539,7 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="43" t="s">
+      <c r="AA81" s="19" t="s">
         <v>35</v>
       </c>
       <c r="AB81" s="15"/>
@@ -8617,13 +8665,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -8647,7 +8695,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="43" t="s">
+      <c r="AA84" s="19" t="s">
         <v>36</v>
       </c>
       <c r="AB84" s="15"/>
@@ -8670,7 +8718,7 @@
       <c r="C85" s="13">
         <v>7</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="15"/>
@@ -8821,7 +8869,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>

--- a/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
+++ b/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC77B43-E90D-4DC7-9FA0-28311D4A5A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143293AE-FB34-40A4-AEF1-8DA1F863974D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7709,6 +7709,9 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
+      <c r="E63" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -7787,6 +7790,9 @@
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
+      <c r="E65" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -7826,8 +7832,8 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="E66" s="1" t="s">
-        <v>63</v>
+      <c r="E66" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -7869,7 +7875,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -7910,9 +7916,6 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="E68" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -7953,7 +7956,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -7994,6 +7997,9 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
+      <c r="E70" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -8033,9 +8039,6 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="E71" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -8077,9 +8080,6 @@
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>

--- a/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
+++ b/doc/外部設計/04_外部設計書（新規登録画面）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143293AE-FB34-40A4-AEF1-8DA1F863974D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E274C5-AD15-43FA-BD02-0FB658D93FC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:E70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
